--- a/data/trans_dic/P1419-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006184249878837289</v>
+        <v>0.006184249878837288</v>
       </c>
     </row>
     <row r="5">
@@ -712,7 +712,7 @@
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.006163199156148744</v>
+        <v>0.005925189510492518</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002837823789244869</v>
+        <v>0.002873979111828564</v>
       </c>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="inlineStr"/>
@@ -740,20 +740,20 @@
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.0297849779435192</v>
+        <v>0.03195809836214657</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.0477605670184035</v>
+        <v>0.04936525953352439</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01463951450743985</v>
+        <v>0.01523442437262642</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.02357458923570476</v>
+        <v>0.02416003133421227</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>0.00682921618631397</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01903057067158101</v>
+        <v>0.019030570671581</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02890697166972796</v>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004802891312543517</v>
+        <v>0.004851552530498589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001368481838272841</v>
+        <v>0.001377143906406029</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -824,28 +824,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03330097484787551</v>
+        <v>0.034158759863572</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004922383711101566</v>
+        <v>0.004899319452566323</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001633165490484467</v>
+        <v>0.001667011819608586</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008603157843348502</v>
+        <v>0.00976401389678349</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02055350744768188</v>
+        <v>0.02038180381701986</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003920508881608937</v>
+        <v>0.0037906100986578</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001680913087052108</v>
+        <v>0.001598818528830602</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00690136301576963</v>
+        <v>0.006181114880473969</v>
       </c>
     </row>
     <row r="9">
@@ -856,40 +856,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02216973854552512</v>
+        <v>0.02491241471757677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01249841871515825</v>
+        <v>0.01259012974771729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01042264131940703</v>
+        <v>0.009018332250330458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01930727686867076</v>
+        <v>0.01626052408432152</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07001327269673605</v>
+        <v>0.06983319202491332</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.023409956759542</v>
+        <v>0.02181511741460643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01597165809093042</v>
+        <v>0.01669487660106872</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03471877246771975</v>
+        <v>0.03607763227235582</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03901273872344622</v>
+        <v>0.03947305155455626</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01382130504765993</v>
+        <v>0.01365934769123793</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009317199790825452</v>
+        <v>0.00933862663374436</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02186090093599894</v>
+        <v>0.02171019946788251</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         <v>0.01876790604847879</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06313636032931441</v>
+        <v>0.06313636032931443</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04564056550391735</v>
@@ -948,40 +948,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007224492058273644</v>
+        <v>0.008363320572043918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002710959423093958</v>
+        <v>0.002655501133237159</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01188999789570431</v>
+        <v>0.01082227502548358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05591471513716946</v>
+        <v>0.0546001720429028</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03959774619201917</v>
+        <v>0.04082199311596795</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01023152733445648</v>
+        <v>0.01120039481572861</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04761823795221968</v>
+        <v>0.04983549537023745</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0351156760517433</v>
+        <v>0.03568614385965924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02390560363993477</v>
+        <v>0.02402334458702331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005816935536959866</v>
+        <v>0.005975969510661624</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03291501452904849</v>
+        <v>0.03326985062208207</v>
       </c>
     </row>
     <row r="12">
@@ -992,40 +992,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02786869482111432</v>
+        <v>0.03031615749572253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02182605620093513</v>
+        <v>0.02472337457927194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01139796210033672</v>
+        <v>0.01286755173490435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03937097174460788</v>
+        <v>0.03830271327084866</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09393990664554916</v>
+        <v>0.09547470845058113</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07590430190016136</v>
+        <v>0.07687165432335398</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03063286436280651</v>
+        <v>0.03279373449415993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0811047324237486</v>
+        <v>0.08357475639397456</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05707121372227437</v>
+        <v>0.05952783612754951</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04542986615425171</v>
+        <v>0.04468937183710926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01734618691464957</v>
+        <v>0.01711009956601531</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0535448845018073</v>
+        <v>0.05334134009730832</v>
       </c>
     </row>
     <row r="13">
@@ -1049,7 +1049,7 @@
         <v>0.02825620179775784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03676598867767039</v>
+        <v>0.03676598867767038</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1055400677428701</v>
@@ -1073,7 +1073,7 @@
         <v>0.04258094494932155</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08137171686543236</v>
+        <v>0.08137171686543238</v>
       </c>
     </row>
     <row r="14">
@@ -1084,40 +1084,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02392737324377863</v>
+        <v>0.02431731382879462</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007262917848783972</v>
+        <v>0.006989242367550367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0168209960882877</v>
+        <v>0.01729412559490097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02386148339224081</v>
+        <v>0.02358068089464584</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08082435227002471</v>
+        <v>0.08117887436188803</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04789696619858733</v>
+        <v>0.04870834361012515</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03950788094278884</v>
+        <v>0.03937785765054388</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1061933413918677</v>
+        <v>0.1057453596979411</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05719326069315333</v>
+        <v>0.05703325965952089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03039129287340549</v>
+        <v>0.03142793251791125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.031822346925178</v>
+        <v>0.03178572293175247</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06960058172254592</v>
+        <v>0.07093519681280536</v>
       </c>
     </row>
     <row r="15">
@@ -1128,40 +1128,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06164303074116566</v>
+        <v>0.06156866899015406</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03108356528155641</v>
+        <v>0.03146800142242147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04376724334396002</v>
+        <v>0.04346189624222273</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05404893966808193</v>
+        <v>0.05401196466587768</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1351677455068129</v>
+        <v>0.135107835968069</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08991457469416869</v>
+        <v>0.08887125143642494</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07709065251075871</v>
+        <v>0.07744888728814062</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1460516865596873</v>
+        <v>0.1451035346421028</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09036889760560383</v>
+        <v>0.0912105197666043</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05318972928569278</v>
+        <v>0.0564910076872976</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05572375753001219</v>
+        <v>0.05453596175339089</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09358612473240992</v>
+        <v>0.09632924549322414</v>
       </c>
     </row>
     <row r="16">
@@ -1185,7 +1185,7 @@
         <v>0.02137338464864808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06886753506921803</v>
+        <v>0.06886753506921801</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1521002173410399</v>
@@ -1220,40 +1220,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03613462802976414</v>
+        <v>0.03664785131975708</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004823686084274427</v>
+        <v>0.004800158317595548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01033796043305884</v>
+        <v>0.01011222226123212</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04929607355664937</v>
+        <v>0.05190366636666115</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1161894252394374</v>
+        <v>0.1186495043176398</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.101526851946083</v>
+        <v>0.1032002011675687</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06827141407020038</v>
+        <v>0.06925988346360663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1152525655394212</v>
+        <v>0.1139152090041968</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08515056868201001</v>
+        <v>0.08695378981565555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05697122050102844</v>
+        <v>0.05819043909003029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04528721321539286</v>
+        <v>0.04395698768485227</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08784420092599109</v>
+        <v>0.08929760280233515</v>
       </c>
     </row>
     <row r="18">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0880953540086002</v>
+        <v>0.08436732554261384</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02794552241462402</v>
+        <v>0.02766999187073511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03756765743476855</v>
+        <v>0.03971256435396044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08692211651400315</v>
+        <v>0.08922529081262007</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1876477168692181</v>
+        <v>0.1908185103939403</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1656685370195956</v>
+        <v>0.1675624756825742</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1254353992251339</v>
+        <v>0.1227980712131832</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1582347442170585</v>
+        <v>0.1577688127793198</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1291602810877362</v>
+        <v>0.1300232629432756</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09268770109474875</v>
+        <v>0.09526598611707968</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07787040615430608</v>
+        <v>0.07772950255224384</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1185155803074557</v>
+        <v>0.1186123654944013</v>
       </c>
     </row>
     <row r="19">
@@ -1321,7 +1321,7 @@
         <v>0.03084154701449298</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06011667924386483</v>
+        <v>0.06011667924386482</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2230779785859626</v>
@@ -1356,40 +1356,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04069665080223259</v>
+        <v>0.04128026942448349</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01550393644704973</v>
+        <v>0.01330791324586259</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01503327783426322</v>
+        <v>0.01541446569079456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04259487176442645</v>
+        <v>0.04228248187068735</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1831975595183575</v>
+        <v>0.1809226198531852</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1194127900002812</v>
+        <v>0.1205991963687759</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.108103526094557</v>
+        <v>0.1086804134593992</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1332627691055851</v>
+        <v>0.1308109647939104</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1256657137796905</v>
+        <v>0.1250115002821868</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07748990378802298</v>
+        <v>0.07844004173202035</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07113143994714016</v>
+        <v>0.06924320514276104</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09525215838819276</v>
+        <v>0.09421521139132731</v>
       </c>
     </row>
     <row r="21">
@@ -1400,40 +1400,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09858986169126831</v>
+        <v>0.1000738457531655</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05525256500705143</v>
+        <v>0.05151946074226341</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05599814519892477</v>
+        <v>0.05372328221952584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08318001991837735</v>
+        <v>0.08313450999788544</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2650508480802564</v>
+        <v>0.2666457005113608</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.195341596829178</v>
+        <v>0.1989759161500461</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1877976255518199</v>
+        <v>0.1868260995624976</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1850017986126331</v>
+        <v>0.1834999316762023</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1783886961213508</v>
+        <v>0.1785588602171282</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1227751910876339</v>
+        <v>0.1232595720539635</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1136063714235828</v>
+        <v>0.1137475177226286</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.12869072353056</v>
+        <v>0.1272207719249492</v>
       </c>
     </row>
     <row r="22">
@@ -1457,7 +1457,7 @@
         <v>0.04271309109760944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08887615031547778</v>
+        <v>0.0888761503154778</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2513834409045896</v>
@@ -1492,40 +1492,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05507169553211562</v>
+        <v>0.05287162382916416</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01317295978061112</v>
+        <v>0.01352912069744893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02315370597062083</v>
+        <v>0.02293534426730077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06555336943925064</v>
+        <v>0.06635658879977724</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2044762634742195</v>
+        <v>0.2022021817647795</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2101365626398123</v>
+        <v>0.2065029013256679</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1187993586905604</v>
+        <v>0.1163662255544955</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2093380073825797</v>
+        <v>0.2077382335449244</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1586055001364283</v>
+        <v>0.1574227303198678</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1367330773736871</v>
+        <v>0.1348760444778637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08665532782309437</v>
+        <v>0.08871393367961292</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1563179409322416</v>
+        <v>0.1569071490724175</v>
       </c>
     </row>
     <row r="24">
@@ -1536,40 +1536,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.132432610765904</v>
+        <v>0.1339053233078957</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06001251831740197</v>
+        <v>0.06369497330402543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0737049129496426</v>
+        <v>0.07115333622012789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1193658725028477</v>
+        <v>0.1212504060239902</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.306045626679007</v>
+        <v>0.3081745686877186</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2989966877587322</v>
+        <v>0.2962085841205643</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2050690858225077</v>
+        <v>0.2038927742944575</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2663491518784564</v>
+        <v>0.2695314146361811</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.224683746633934</v>
+        <v>0.2247853698155844</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2006571249107141</v>
+        <v>0.198487991292233</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1425184734455548</v>
+        <v>0.1447994510442179</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2009057142394873</v>
+        <v>0.1991774939429873</v>
       </c>
     </row>
     <row r="25">
@@ -1628,40 +1628,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
     </row>
     <row r="27">
@@ -1672,40 +1672,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="28">
@@ -1983,7 +1983,7 @@
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>2881</v>
+        <v>2770</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2729</v>
+        <v>2763</v>
       </c>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="inlineStr"/>
@@ -2011,20 +2011,20 @@
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>13924</v>
+        <v>14940</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>17314</v>
+        <v>17895</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14077</v>
+        <v>14649</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>18160</v>
+        <v>18611</v>
       </c>
     </row>
     <row r="8">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3532</v>
+        <v>3568</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -2139,28 +2139,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20830</v>
+        <v>21366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3004</v>
+        <v>2990</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4311</v>
+        <v>4893</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>27973</v>
+        <v>27739</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5086</v>
+        <v>4918</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1940</v>
+        <v>1845</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6749</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="11">
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16306</v>
+        <v>18323</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8588</v>
+        <v>8651</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6155</v>
+        <v>5325</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9207</v>
+        <v>7754</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43793</v>
+        <v>43680</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14286</v>
+        <v>13313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9001</v>
+        <v>9408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17397</v>
+        <v>18078</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53096</v>
+        <v>53722</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17931</v>
+        <v>17721</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10752</v>
+        <v>10777</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21379</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="12">
@@ -2307,40 +2307,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4614</v>
+        <v>5341</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1849</v>
+        <v>1811</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7382</v>
+        <v>6719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38567</v>
+        <v>37660</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28098</v>
+        <v>28966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6767</v>
+        <v>7408</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29594</v>
+        <v>30972</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46648</v>
+        <v>47406</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33263</v>
+        <v>33427</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7739</v>
+        <v>7951</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40891</v>
+        <v>41332</v>
       </c>
     </row>
     <row r="15">
@@ -2351,40 +2351,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17799</v>
+        <v>19362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14882</v>
+        <v>16858</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7626</v>
+        <v>8610</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24443</v>
+        <v>23780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64794</v>
+        <v>65853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53860</v>
+        <v>54546</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20260</v>
+        <v>21689</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>50406</v>
+        <v>51941</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>75814</v>
+        <v>79077</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>63213</v>
+        <v>62182</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23079</v>
+        <v>22765</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>66520</v>
+        <v>66267</v>
       </c>
     </row>
     <row r="16">
@@ -2487,40 +2487,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12422</v>
+        <v>12624</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4464</v>
+        <v>4296</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10867</v>
+        <v>11173</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16718</v>
+        <v>16521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>41676</v>
+        <v>41859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29421</v>
+        <v>29920</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>25644</v>
+        <v>25559</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>78136</v>
+        <v>77807</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59183</v>
+        <v>59017</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>37347</v>
+        <v>38621</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>41214</v>
+        <v>41166</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>99975</v>
+        <v>101892</v>
       </c>
     </row>
     <row r="19">
@@ -2531,40 +2531,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32002</v>
+        <v>31963</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19104</v>
+        <v>19341</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28276</v>
+        <v>28078</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37868</v>
+        <v>37842</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>69698</v>
+        <v>69667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55231</v>
+        <v>54590</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50038</v>
+        <v>50270</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>107464</v>
+        <v>106766</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93513</v>
+        <v>94384</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>65364</v>
+        <v>69421</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>72169</v>
+        <v>70631</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>134428</v>
+        <v>138368</v>
       </c>
     </row>
     <row r="20">
@@ -2667,40 +2667,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13974</v>
+        <v>14172</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4941</v>
+        <v>4833</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29990</v>
+        <v>31576</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>46939</v>
+        <v>47933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45464</v>
+        <v>46213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>33921</v>
+        <v>34412</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>69931</v>
+        <v>69120</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>67328</v>
+        <v>68754</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49977</v>
+        <v>51046</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44144</v>
+        <v>42848</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>106742</v>
+        <v>108508</v>
       </c>
     </row>
     <row r="23">
@@ -2711,40 +2711,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34067</v>
+        <v>32626</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12001</v>
+        <v>11882</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17954</v>
+        <v>18979</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52880</v>
+        <v>54281</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75807</v>
+        <v>77088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74186</v>
+        <v>75034</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62322</v>
+        <v>61012</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>96011</v>
+        <v>95729</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>102127</v>
+        <v>102809</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>81308</v>
+        <v>83570</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>75906</v>
+        <v>75768</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>144011</v>
+        <v>144129</v>
       </c>
     </row>
     <row r="24">
@@ -2847,40 +2847,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11907</v>
+        <v>12078</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4803</v>
+        <v>4123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5026</v>
+        <v>5154</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17303</v>
+        <v>17176</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>62825</v>
+        <v>62045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>42272</v>
+        <v>42692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>40837</v>
+        <v>41055</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>58524</v>
+        <v>57448</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>79863</v>
+        <v>79447</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>51436</v>
+        <v>52067</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>50652</v>
+        <v>49308</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>80524</v>
+        <v>79647</v>
       </c>
     </row>
     <row r="27">
@@ -2891,40 +2891,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>28846</v>
+        <v>29280</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17116</v>
+        <v>15960</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18722</v>
+        <v>17961</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>33789</v>
+        <v>33770</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>90895</v>
+        <v>91442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>69150</v>
+        <v>70437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>70943</v>
+        <v>70576</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>81246</v>
+        <v>80587</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>113369</v>
+        <v>113477</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>81496</v>
+        <v>81817</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>80898</v>
+        <v>80999</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>108792</v>
+        <v>107550</v>
       </c>
     </row>
     <row r="28">
@@ -3027,40 +3027,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11559</v>
+        <v>11097</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3291</v>
+        <v>3380</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5950</v>
+        <v>5894</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20335</v>
+        <v>20584</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>68276</v>
+        <v>67517</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>81739</v>
+        <v>80325</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>47540</v>
+        <v>46566</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>97260</v>
+        <v>96517</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>86248</v>
+        <v>85605</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>87349</v>
+        <v>86163</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>56947</v>
+        <v>58300</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>121116</v>
+        <v>121573</v>
       </c>
     </row>
     <row r="31">
@@ -3071,40 +3071,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27795</v>
+        <v>28104</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14994</v>
+        <v>15914</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18942</v>
+        <v>18286</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>37027</v>
+        <v>37612</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>102191</v>
+        <v>102902</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>116303</v>
+        <v>115219</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>82062</v>
+        <v>81592</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>123748</v>
+        <v>125227</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>122181</v>
+        <v>122236</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>128186</v>
+        <v>126800</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>93658</v>
+        <v>95157</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>155663</v>
+        <v>154324</v>
       </c>
     </row>
     <row r="32">
@@ -3207,40 +3207,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
     </row>
     <row r="35">
@@ -3251,40 +3251,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
     </row>
     <row r="36">
